--- a/Mifos Automation Excels/Client/Scenario2-NABKISAN-LATE-TR1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario2-NABKISAN-LATE-TR1-Makerepayment1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>makerepayment</t>
   </si>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>41671</v>
+        <v>42045</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,28 +565,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1525323</v>
+        <v>30000</v>
       </c>
       <c r="B2" s="7">
-        <v>284823.46999999997</v>
+        <v>2357.41</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>1240499.53</v>
+        <v>27642.59</v>
       </c>
       <c r="F2" s="7">
-        <v>925313.52</v>
+        <v>27642.59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>351773.27</v>
-      </c>
-      <c r="B3" s="7">
-        <v>15965.53</v>
+        <v>4631.49</v>
+      </c>
+      <c r="B3" s="3">
+        <v>305.75</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>335807.74</v>
+        <v>4325.74</v>
       </c>
       <c r="F3" s="7">
-        <v>318082.03999999998</v>
+        <v>3200.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -725,13 +725,13 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="8">
-        <v>41760</v>
+        <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="6">
-        <v>1525323</v>
+        <v>30000</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
@@ -753,23 +753,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8">
-        <v>41764</v>
+        <v>42036</v>
       </c>
       <c r="D3" s="8">
-        <v>41764</v>
+        <v>42045</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7">
-        <v>218410.52</v>
+        <v>2357.41</v>
       </c>
       <c r="G3" s="7">
-        <v>1306912.48</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2089.48</v>
+        <v>27642.59</v>
+      </c>
+      <c r="H3" s="3">
+        <v>305.75</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -777,17 +777,17 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <v>220500</v>
-      </c>
-      <c r="L3" s="6">
-        <v>220500</v>
+      <c r="K3" s="7">
+        <v>2663.16</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2663.16</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
+      <c r="N3" s="7">
+        <v>2663.16</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -798,23 +798,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8">
-        <v>41795</v>
-      </c>
-      <c r="D4" s="8">
-        <v>41795</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>42064</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="7">
-        <v>66412.95</v>
+        <v>2400.8200000000002</v>
       </c>
       <c r="G4" s="7">
-        <v>1240499.53</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13876.05</v>
+        <v>25241.77</v>
+      </c>
+      <c r="H4" s="3">
+        <v>262.33999999999997</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -822,11 +820,11 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
-        <v>80289</v>
-      </c>
-      <c r="L4" s="6">
-        <v>80289</v>
+      <c r="K4" s="7">
+        <v>2663.16</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -834,8 +832,8 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
-        <v>0</v>
+      <c r="P4" s="7">
+        <v>2663.16</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -843,21 +841,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
-        <v>41825</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="7">
-        <v>43774.3</v>
+        <v>2378.7600000000002</v>
       </c>
       <c r="G5" s="7">
-        <v>1196725.23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12743.68</v>
+        <v>22863.01</v>
+      </c>
+      <c r="H5" s="3">
+        <v>284.39999999999998</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -866,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -878,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -886,21 +884,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>41856</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6">
-        <v>43213</v>
+      <c r="F6" s="7">
+        <v>2385.13</v>
       </c>
       <c r="G6" s="7">
-        <v>1153512.23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>13304.98</v>
+        <v>20477.88</v>
+      </c>
+      <c r="H6" s="3">
+        <v>278.02999999999997</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -909,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -921,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -932,18 +930,18 @@
         <v>31</v>
       </c>
       <c r="C7" s="8">
-        <v>41887</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="7">
-        <v>43071.75</v>
+        <v>2373.0300000000002</v>
       </c>
       <c r="G7" s="7">
-        <v>1110440.48</v>
-      </c>
-      <c r="H7" s="7">
-        <v>13446.23</v>
+        <v>18104.849999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>290.13</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -952,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -964,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -975,18 +973,18 @@
         <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>41917</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7">
-        <v>43367.360000000001</v>
+        <v>2379.52</v>
       </c>
       <c r="G8" s="7">
-        <v>1067073.1200000001</v>
-      </c>
-      <c r="H8" s="7">
-        <v>13150.62</v>
+        <v>15725.33</v>
+      </c>
+      <c r="H8" s="3">
+        <v>283.64</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -995,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1007,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1018,18 +1016,18 @@
         <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>41948</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7">
-        <v>42789.39</v>
+        <v>2367.1799999999998</v>
       </c>
       <c r="G9" s="7">
-        <v>1024283.73</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13728.59</v>
+        <v>13358.15</v>
+      </c>
+      <c r="H9" s="3">
+        <v>295.98</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1038,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1050,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1058,21 +1056,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8">
-        <v>41978</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="7">
-        <v>43091.199999999997</v>
+        <v>2364.16</v>
       </c>
       <c r="G10" s="7">
-        <v>981192.53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13426.78</v>
+        <v>10993.99</v>
+      </c>
+      <c r="H10" s="3">
+        <v>299</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1081,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1093,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1101,21 +1099,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>42009</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="7">
-        <v>42501.1</v>
+        <v>2370.86</v>
       </c>
       <c r="G11" s="7">
-        <v>938691.43</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14016.88</v>
+        <v>8623.1299999999992</v>
+      </c>
+      <c r="H11" s="3">
+        <v>292.3</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1124,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1136,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1147,18 +1145,18 @@
         <v>31</v>
       </c>
       <c r="C12" s="8">
-        <v>42040</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="7">
-        <v>42352.28</v>
+        <v>2358.14</v>
       </c>
       <c r="G12" s="7">
-        <v>896339.15</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14165.7</v>
+        <v>6264.99</v>
+      </c>
+      <c r="H12" s="3">
+        <v>305.02</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1167,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1179,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1187,21 +1185,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>42068</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="7">
-        <v>43587.32</v>
+        <v>2364.9699999999998</v>
       </c>
       <c r="G13" s="7">
-        <v>852751.83</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12930.66</v>
+        <v>3900.02</v>
+      </c>
+      <c r="H13" s="3">
+        <v>298.19</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1210,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -1222,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>56517.98</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1233,18 +1231,18 @@
         <v>31</v>
       </c>
       <c r="C14" s="8">
-        <v>42099</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="7">
-        <v>42064.62</v>
-      </c>
-      <c r="G14" s="7">
-        <v>810687.21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14453.36</v>
+        <v>3900.02</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>311.17</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1253,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>56517.98</v>
+        <v>4211.1899999999996</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1265,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>56517.98</v>
+        <v>4211.1899999999996</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1273,21 +1271,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C15" s="8">
-        <v>42129</v>
+        <v>42481</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="7">
-        <v>42382.36</v>
-      </c>
-      <c r="G15" s="7">
-        <v>768304.85</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>14135.62</v>
+        <v>1125.54</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1296,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>56517.98</v>
+        <v>1125.54</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1308,609 +1306,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8">
-        <v>42160</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7">
-        <v>41761.1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>726543.75</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14756.88</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8">
-        <v>42190</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7">
-        <v>42085.52</v>
-      </c>
-      <c r="G17" s="7">
-        <v>684458.23</v>
-      </c>
-      <c r="H17" s="7">
-        <v>14432.46</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8">
-        <v>42221</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7">
-        <v>41451.22</v>
-      </c>
-      <c r="G18" s="7">
-        <v>643007.01</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15066.76</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8">
-        <v>42252</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7">
-        <v>41291.26</v>
-      </c>
-      <c r="G19" s="7">
-        <v>601715.75</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15226.72</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8">
-        <v>42282</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7">
-        <v>41626.01</v>
-      </c>
-      <c r="G20" s="7">
-        <v>560089.74</v>
-      </c>
-      <c r="H20" s="7">
-        <v>14891.97</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>31</v>
-      </c>
-      <c r="C21" s="8">
-        <v>42313</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7">
-        <v>40971.51</v>
-      </c>
-      <c r="G21" s="7">
-        <v>519118.23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15546.47</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8">
-        <v>42343</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7">
-        <v>41313.279999999999</v>
-      </c>
-      <c r="G22" s="7">
-        <v>477804.95</v>
-      </c>
-      <c r="H22" s="7">
-        <v>15204.7</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8">
-        <v>42374</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7">
-        <v>40645.040000000001</v>
-      </c>
-      <c r="G23" s="7">
-        <v>437159.91</v>
-      </c>
-      <c r="H23" s="7">
-        <v>15872.94</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8">
-        <v>42405</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7">
-        <v>40476.53</v>
-      </c>
-      <c r="G24" s="7">
-        <v>396683.38</v>
-      </c>
-      <c r="H24" s="7">
-        <v>16041.45</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8">
-        <v>42434</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7">
-        <v>41352.15</v>
-      </c>
-      <c r="G25" s="7">
-        <v>355331.23</v>
-      </c>
-      <c r="H25" s="7">
-        <v>15165.83</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>31</v>
-      </c>
-      <c r="C26" s="8">
-        <v>42465</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7">
-        <v>40145.22</v>
-      </c>
-      <c r="G26" s="7">
-        <v>315186.01</v>
-      </c>
-      <c r="H26" s="7">
-        <v>16372.76</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8">
-        <v>42495</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="7">
-        <v>43906.61</v>
-      </c>
-      <c r="G27" s="7">
-        <v>271279.40000000002</v>
-      </c>
-      <c r="H27" s="7">
-        <v>12611.37</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8">
-        <v>42526</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7">
-        <v>53638.86</v>
-      </c>
-      <c r="G28" s="7">
-        <v>217640.54</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2879.12</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
-        <v>56517.98</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>56517.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8">
-        <v>42556</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7">
-        <v>217640.54</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2235.21</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
-        <v>219875.75</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>219875.75</v>
+        <v>1125.54</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1964,585 +1360,311 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>714</v>
+        <v>2049</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="8">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7">
-        <v>16344.77</v>
+      <c r="E2" s="3">
+        <v>311.17</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="J2" s="7">
-        <v>1555917.33</v>
+        <v>30842.79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>713</v>
+        <v>2048</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="8">
-        <v>42429</v>
+        <v>42338</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7">
-        <v>15139.91</v>
+      <c r="E3" s="3">
+        <v>298.19</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="J3" s="7">
-        <v>1539572.56</v>
+        <v>30531.62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>712</v>
+        <v>2047</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="8">
-        <v>42400</v>
+        <v>42308</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7">
-        <v>16014.03</v>
+      <c r="E4" s="3">
+        <v>305.02</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="J4" s="7">
-        <v>1524432.65</v>
+        <v>30233.43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>711</v>
+        <v>2046</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="8">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7">
-        <v>15845.81</v>
+      <c r="E5" s="3">
+        <v>292.3</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="J5" s="7">
-        <v>1508418.62</v>
+        <v>29928.41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>710</v>
+        <v>2045</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="8">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7">
-        <v>15178.7</v>
+      <c r="E6" s="3">
+        <v>299</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="J6" s="7">
-        <v>1492572.81</v>
+        <v>29636.11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>709</v>
+        <v>2044</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="8">
-        <v>42308</v>
+        <v>42216</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7">
-        <v>15519.9</v>
+      <c r="E7" s="3">
+        <v>295.98</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="J7" s="7">
-        <v>1477394.11</v>
+        <v>29337.11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>708</v>
+        <v>2043</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="8">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7">
-        <v>14866.51</v>
+      <c r="E8" s="3">
+        <v>283.64</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="J8" s="7">
-        <v>1461874.21</v>
+        <v>29041.13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>707</v>
+        <v>2042</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8">
-        <v>42247</v>
+        <v>42155</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7">
-        <v>15200.69</v>
+      <c r="E9" s="3">
+        <v>290.13</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="J9" s="7">
-        <v>1447007.7</v>
+        <v>28757.49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>706</v>
+        <v>2041</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="8">
-        <v>42216</v>
+        <v>42124</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7">
-        <v>15041.01</v>
+      <c r="E10" s="3">
+        <v>278.02999999999997</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="J10" s="7">
-        <v>1431807.01</v>
+        <v>28467.360000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>705</v>
+        <v>2040</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="8">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7">
-        <v>14407.79</v>
+      <c r="E11" s="3">
+        <v>284.39999999999998</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="J11" s="6">
-        <v>1416766</v>
+      <c r="J11" s="7">
+        <v>28189.33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>704</v>
+        <v>2039</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="8">
-        <v>42155</v>
+        <v>42063</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7">
-        <v>14731.65</v>
+      <c r="E12" s="3">
+        <v>262.33999999999997</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="J12" s="7">
-        <v>1402358.21</v>
+        <v>27904.93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>703</v>
+        <v>2037</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="8">
-        <v>42124</v>
+        <v>42045</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7">
-        <v>14111.46</v>
+        <v>2663.16</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="J13" s="7">
-        <v>1387626.56</v>
+        <v>27642.59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>702</v>
+        <v>2024</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="8">
-        <v>42094</v>
+        <v>42035</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7">
-        <v>14428.65</v>
+      <c r="E14" s="3">
+        <v>305.75</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="J14" s="7">
-        <v>1373515.1</v>
+        <v>30305.75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>701</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="8">
-        <v>42063</v>
+        <v>42005</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7">
-        <v>12908.56</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30000</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="J15" s="7">
-        <v>1359086.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>700</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8">
-        <v>42035</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="7">
-        <v>14141.48</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="7">
-        <v>1346177.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>699</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8">
-        <v>42004</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7">
-        <v>13992.92</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="7">
-        <v>1332036.4099999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>698</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8">
-        <v>41973</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7">
-        <v>13403.83</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="7">
-        <v>1318043.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>697</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8">
-        <v>41943</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="7">
-        <v>13705.12</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="J19" s="7">
-        <v>1304639.6599999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>696</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8">
-        <v>41912</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7">
-        <v>13128.14</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="7">
-        <v>1290934.54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>695</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8">
-        <v>41882</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7">
-        <v>13423.25</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="7">
-        <v>1277806.3999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>694</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="8">
-        <v>41851</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="7">
-        <v>13282.24</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="7">
-        <v>1264383.1499999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>693</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="8">
-        <v>41820</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12859.14</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="7">
-        <v>1251100.9099999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>691</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="8">
-        <v>41795</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="6">
-        <v>80289</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="7">
-        <v>1238241.77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>668</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8">
-        <v>41790</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7">
-        <v>13707.77</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="7">
-        <v>1318530.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>666</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8">
-        <v>41764</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6">
-        <v>220500</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="6">
-        <v>1304823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>641</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8">
-        <v>41760</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1525323</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="J27" s="6">
-        <v>1525323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="J15" s="6">
+        <v>30000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
